--- a/medicine/Enfance/Marie_Colot/Marie_Colot.xlsx
+++ b/medicine/Enfance/Marie_Colot/Marie_Colot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Colot, née le 25 juin 1981 à Namur (Wallonie), est une romancière belge pour la jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Colot naît le 25 juin 1981 dans le Namurois[1],[2]. Elle fait des études de philologie romane complétées d'un diplôme en arts du spectacle. Enseignante de français à partir de 2006, elle écrit en parallèle et publie son premier ouvrage, En toutes lettres aux éditions Alice en 2012[3].
-Marie Colot continue à écrire des romans et reçoit notamment le prix Libbylit pour Souvenirs de ma nouvelle vie[4]. Elle reçoit également le prix Première Victor du livre jeunesse pour son roman Jusqu'ici tout va bien[5].
-En 2018 paraît Deux Secondes en moins, aux éditions Magnard Jeunesse. Il raconte le destin de deux adolescents, Rhéa et Igor, tous deux victimes d'un événement traumatisant et qui se reconstruisent grâce à la musique[6],[7]. Le roman est lauréat du prix Farniente[8], du prix des Incos 2019-2020[9] et de nombreux autres prix[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Colot naît le 25 juin 1981 dans le Namurois,. Elle fait des études de philologie romane complétées d'un diplôme en arts du spectacle. Enseignante de français à partir de 2006, elle écrit en parallèle et publie son premier ouvrage, En toutes lettres aux éditions Alice en 2012.
+Marie Colot continue à écrire des romans et reçoit notamment le prix Libbylit pour Souvenirs de ma nouvelle vie. Elle reçoit également le prix Première Victor du livre jeunesse pour son roman Jusqu'ici tout va bien.
+En 2018 paraît Deux Secondes en moins, aux éditions Magnard Jeunesse. Il raconte le destin de deux adolescents, Rhéa et Igor, tous deux victimes d'un événement traumatisant et qui se reconstruisent grâce à la musique,. Le roman est lauréat du prix Farniente, du prix des Incos 2019-2020 et de nombreux autres prix.
 Elle publie en 2020 son premier album jeunesse Mamie ça suffit (prix Versele 2022) qui sera suivi d'autres albums dans plusieurs maisons d'édition.
-En 2021, deux romans (l'un junior, l'autre ado) publiés aux éditions Actes Sud Junior reçoivent un bel accueil critique[11],[12],[13],[14]. Eden, fille de personne est sélectionné dans les Pépites 2021 (catégorie Fictions Ados) du Salon du livre et de la presse jeunesse et dans une vingtaine de prix littéraires. 
+En 2021, deux romans (l'un junior, l'autre ado) publiés aux éditions Actes Sud Junior reçoivent un bel accueil critique. Eden, fille de personne est sélectionné dans les Pépites 2021 (catégorie Fictions Ados) du Salon du livre et de la presse jeunesse et dans une vingtaine de prix littéraires. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En toutes lettres, Alice Jeunesse, 2012
 Souvenirs de ma nouvelle vie, Alice Jeunesse, 2013
@@ -572,15 +588,15 @@
 S.O.S. Forêt en détresse (illustrations d'A. Gormand), Éditions Kilowatt, 2021
 Des Mots en fleurs (illustrations de Karolien Vanderstappen), CotCotCot éditions, 2021
 Les Pêcheurs d'éternité (illustrations de Sébastien Mourrain), Actes Sud Junior, 2021
-Eden, fille de personne, Actes Sud Junior, 2021[15]
+Eden, fille de personne, Actes Sud Junior, 2021
 Le Club de la cabane (illustrations de Christine Ponchon), Éditions Erasme, 2021
 Et si ça existait (illustrations de Ian de Haes), Alice Jeunesse, 2022
 Le Paradis des coccinelles (illustrations de Marie Leghima), Actes Sud Junior, 2022
 Petite mer (illustrations de Manuela Ferry), Éditions du Pourquoi pas, 2022
 Au nom de nos rêves (collectif), Scrineo, 2022
-113 raisons d'espérer, Magnard jeunesse, 2022[16]
+113 raisons d'espérer, Magnard jeunesse, 2022
 Nos amies les bêtes (illustrations de Françoise Rogier), À pas de loup, 2023
-Le Soleil d'en face (illustrations de Laura Giraud), Alice Jeunesse, 2023[17]
+Le Soleil d'en face (illustrations de Laura Giraud), Alice Jeunesse, 2023
 Nos violences, Actes Sud Jeunesse, 2023
 Notre première fête des gens qu’on aime (illustrations de Florence Weiser), Alice Jeunesse, 2023
 Pom-pom boys (illustrations de Éric Héliot, Kamy Pakdel), Actes Sud Jeunesse, 2024  (ISBN 9782330188818).</t>
@@ -611,21 +627,23 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2013 : prix Libbylit, décerné par l'IBBY pour Souvenirs de ma nouvelle vie[4] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 : prix Libbylit, décerné par l'IBBY pour Souvenirs de ma nouvelle vie ;
 2019 :
-prix Libbylit, décerné par l'IBBY pour Deux secondes en moins[18] ;
+prix Libbylit, décerné par l'IBBY pour Deux secondes en moins ;
 2020 :
-prix Farniente pour Deux secondes en moins[8] ;
-« Honour List »[19] de l'IBBY pour Jusqu'ici tout va bien ;
-prix Victor Première pour Jusqu'ici tout va bien[5] ;
-prix des Incorruptibles 3e-lycée pour Deux secondes en moins[20] ;
-2021 : Sélection « Pépite » du Salon du livre et de la presse jeunesse[21], catégorie Fiction Ados, pour Eden, fille de personne ;
+prix Farniente pour Deux secondes en moins ;
+« Honour List » de l'IBBY pour Jusqu'ici tout va bien ;
+prix Victor Première pour Jusqu'ici tout va bien ;
+prix des Incorruptibles 3e-lycée pour Deux secondes en moins ;
+2021 : Sélection « Pépite » du Salon du livre et de la presse jeunesse, catégorie Fiction Ados, pour Eden, fille de personne ;
 2022 :
-prix Libbylit pour Eden, fille de personne[22] ;
-prix Bernard Versele (catégorie 1 chouette, dès 3 ans) pour Mamie ça suffit[23] ;
-prix du livre jeunesse écolo pour S.O.S. Forêt en détresse[24] ;
+prix Libbylit pour Eden, fille de personne ;
+prix Bernard Versele (catégorie 1 chouette, dès 3 ans) pour Mamie ça suffit ;
+prix du livre jeunesse écolo pour S.O.S. Forêt en détresse ;
 2023 : prix Chronos pour Eden, fille de personne.</t>
         </is>
       </c>
